--- a/sample/locationtest/Datas/Test/Test3.xlsx
+++ b/sample/locationtest/Datas/Test/Test3.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="60">
   <si>
     <t>TestConfig2</t>
   </si>
@@ -100,6 +100,9 @@
   </si>
   <si>
     <t>(list#sep=,),text</t>
+  </si>
+  <si>
+    <t>##extend</t>
   </si>
   <si>
     <t>##group</t>
@@ -1202,10 +1205,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AD17"/>
+  <dimension ref="A1:AD18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
@@ -1341,21 +1344,15 @@
         <v>18</v>
       </c>
       <c r="B5" s="5"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>19</v>
-      </c>
+      <c r="C5" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="5"/>
+      <c r="E5" s="6"/>
       <c r="F5" s="6"/>
       <c r="G5" s="6"/>
-      <c r="H5" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="I5" s="5" t="s">
-        <v>20</v>
-      </c>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5"/>
       <c r="J5"/>
       <c r="K5"/>
       <c r="L5"/>
@@ -1378,28 +1375,26 @@
       <c r="AC5"/>
       <c r="AD5"/>
     </row>
-    <row r="6" s="1" customFormat="1" spans="1:30">
-      <c r="A6" s="3" t="s">
+    <row r="6" s="2" customFormat="1" spans="1:30">
+      <c r="A6" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="B6" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
-      <c r="I6" s="3"/>
+      <c r="I6" s="5" t="s">
+        <v>21</v>
+      </c>
       <c r="J6"/>
       <c r="K6"/>
       <c r="L6"/>
@@ -1422,150 +1417,178 @@
       <c r="AC6"/>
       <c r="AD6"/>
     </row>
-    <row r="7" spans="2:9">
-      <c r="B7">
-        <v>10000</v>
-      </c>
-      <c r="C7" t="s">
+    <row r="7" s="1" customFormat="1" spans="1:30">
+      <c r="A7" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="D7" t="s">
-        <v>26</v>
-      </c>
-      <c r="E7" t="s">
-        <v>26</v>
-      </c>
-      <c r="F7" t="s">
-        <v>27</v>
-      </c>
-      <c r="G7" t="s">
-        <v>28</v>
-      </c>
-      <c r="H7" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="I7" s="7" t="s">
-        <v>30</v>
-      </c>
+      <c r="E7" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="J7"/>
+      <c r="K7"/>
+      <c r="L7"/>
+      <c r="M7"/>
+      <c r="N7"/>
+      <c r="O7"/>
+      <c r="P7"/>
+      <c r="Q7"/>
+      <c r="R7"/>
+      <c r="S7"/>
+      <c r="T7"/>
+      <c r="U7"/>
+      <c r="V7"/>
+      <c r="W7"/>
+      <c r="X7"/>
+      <c r="Y7"/>
+      <c r="Z7"/>
+      <c r="AA7"/>
+      <c r="AB7"/>
+      <c r="AC7"/>
+      <c r="AD7"/>
     </row>
     <row r="8" spans="2:9">
       <c r="B8">
-        <v>10001</v>
+        <v>10000</v>
       </c>
       <c r="C8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" t="s">
+        <v>27</v>
+      </c>
+      <c r="E8" t="s">
+        <v>27</v>
+      </c>
+      <c r="F8" t="s">
+        <v>28</v>
+      </c>
+      <c r="G8" t="s">
+        <v>29</v>
+      </c>
+      <c r="H8" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="I8" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="D8" t="s">
-        <v>32</v>
-      </c>
-      <c r="E8" t="s">
-        <v>33</v>
-      </c>
-      <c r="F8" t="s">
-        <v>34</v>
-      </c>
-      <c r="G8" t="s">
-        <v>35</v>
-      </c>
-      <c r="H8" s="7"/>
-      <c r="I8" s="7"/>
     </row>
     <row r="9" spans="2:9">
       <c r="B9">
-        <v>10002</v>
+        <v>10001</v>
       </c>
       <c r="C9" t="s">
+        <v>32</v>
+      </c>
+      <c r="D9" t="s">
+        <v>33</v>
+      </c>
+      <c r="E9" t="s">
+        <v>34</v>
+      </c>
+      <c r="F9" t="s">
+        <v>35</v>
+      </c>
+      <c r="G9" t="s">
         <v>36</v>
-      </c>
-      <c r="D9" t="s">
-        <v>37</v>
-      </c>
-      <c r="G9" t="s">
-        <v>38</v>
       </c>
       <c r="H9" s="7"/>
       <c r="I9" s="7"/>
     </row>
     <row r="10" spans="2:9">
       <c r="B10">
-        <v>10003</v>
+        <v>10002</v>
       </c>
       <c r="C10" t="s">
+        <v>37</v>
+      </c>
+      <c r="D10" t="s">
+        <v>38</v>
+      </c>
+      <c r="G10" t="s">
         <v>39</v>
-      </c>
-      <c r="D10" t="s">
-        <v>40</v>
-      </c>
-      <c r="G10" t="s">
-        <v>26</v>
       </c>
       <c r="H10" s="7"/>
       <c r="I10" s="7"/>
     </row>
     <row r="11" spans="2:9">
       <c r="B11">
-        <v>10004</v>
+        <v>10003</v>
       </c>
       <c r="C11" t="s">
+        <v>40</v>
+      </c>
+      <c r="D11" t="s">
         <v>41</v>
       </c>
-      <c r="D11" t="s">
-        <v>42</v>
-      </c>
       <c r="G11" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="H11" s="7"/>
       <c r="I11" s="7"/>
     </row>
     <row r="12" spans="2:9">
       <c r="B12">
-        <v>10005</v>
-      </c>
-      <c r="C12" s="7" t="s">
+        <v>10004</v>
+      </c>
+      <c r="C12" t="s">
+        <v>42</v>
+      </c>
+      <c r="D12" t="s">
         <v>43</v>
       </c>
-      <c r="D12" t="s">
-        <v>44</v>
-      </c>
       <c r="G12" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="H12" s="7"/>
       <c r="I12" s="7"/>
     </row>
     <row r="13" spans="2:9">
       <c r="B13">
-        <v>10006</v>
-      </c>
-      <c r="C13" t="s">
+        <v>10005</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="D13" t="s">
+        <v>45</v>
+      </c>
+      <c r="G13" t="s">
         <v>46</v>
-      </c>
-      <c r="D13" t="s">
-        <v>47</v>
       </c>
       <c r="H13" s="7"/>
       <c r="I13" s="7"/>
     </row>
     <row r="14" spans="2:9">
       <c r="B14">
-        <v>10007</v>
-      </c>
-      <c r="C14" s="7" t="s">
+        <v>10006</v>
+      </c>
+      <c r="C14" t="s">
+        <v>47</v>
+      </c>
+      <c r="D14" t="s">
         <v>48</v>
       </c>
-      <c r="D14" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="E14" s="7"/>
-      <c r="F14" s="7"/>
-      <c r="G14" s="7"/>
       <c r="H14" s="7"/>
       <c r="I14" s="7"/>
     </row>
     <row r="15" spans="2:9">
       <c r="B15">
-        <v>10008</v>
+        <v>10007</v>
       </c>
       <c r="C15" s="7" t="s">
         <v>49</v>
@@ -1581,13 +1604,13 @@
     </row>
     <row r="16" spans="2:9">
       <c r="B16">
-        <v>10009</v>
+        <v>10008</v>
       </c>
       <c r="C16" s="7" t="s">
         <v>50</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E16" s="7"/>
       <c r="F16" s="7"/>
@@ -1597,35 +1620,52 @@
     </row>
     <row r="17" spans="2:9">
       <c r="B17">
+        <v>10009</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="E17" s="7"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="7"/>
+      <c r="H17" s="7"/>
+      <c r="I17" s="7"/>
+    </row>
+    <row r="18" spans="2:9">
+      <c r="B18">
         <v>10010</v>
       </c>
-      <c r="C17" t="s">
-        <v>52</v>
-      </c>
-      <c r="D17" t="s">
+      <c r="C18" t="s">
         <v>53</v>
       </c>
-      <c r="E17" t="s">
+      <c r="D18" t="s">
         <v>54</v>
       </c>
-      <c r="F17" t="s">
+      <c r="E18" t="s">
         <v>55</v>
       </c>
-      <c r="G17" t="s">
+      <c r="F18" t="s">
         <v>56</v>
       </c>
-      <c r="H17" t="s">
+      <c r="G18" t="s">
         <v>57</v>
       </c>
-      <c r="I17" t="s">
+      <c r="H18" t="s">
         <v>58</v>
       </c>
+      <c r="I18" t="s">
+        <v>59</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="4">
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="E5:F5"/>
+    <mergeCell ref="E6:F6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
